--- a/VersionRecords/Version 5.2.0 20161229/定时器/房东月蘑菇分定时器（磐石组）.xlsx
+++ b/VersionRecords/Version 5.2.0 20161229/定时器/房东月蘑菇分定时器（磐石组）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23115" windowHeight="5565" tabRatio="185"/>
+    <workbookView xWindow="2895" yWindow="3315" windowWidth="23115" windowHeight="5565" tabRatio="185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
